--- a/test_file/test.xlsx
+++ b/test_file/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www\mytest\excel_to_db\excel_file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www\mytest\excel2dbtable\test_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -164,59 +164,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>在要</t>
+    <t>date</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>bizdt</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>影响很大</t>
-    </r>
+    <t>status</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>入库</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>s</t>
-    </r>
+    <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>要硒</t>
+    <t>bill_code</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>下有人</t>
+    <t>goods_code</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>下扔</t>
+    <t>bar_code</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -605,7 +573,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,16 +583,16 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>51</v>
